--- a/Trade-off/Ranking.xlsx
+++ b/Trade-off/Ranking.xlsx
@@ -81,7 +81,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,97 +96,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEDF4FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE8F1FA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD0E2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3B8BC2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF08306B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6FAFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF5FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE3EEF8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA9CFE5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB8D5EA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0E59A2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF85BCDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDFEBF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2EDF8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F7FD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5F9FE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,91 +108,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD4E4F4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEFF6FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDBE9F6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F8FD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF89BEDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCEAF6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF5FAFE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0F6FD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8FC2DE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F8FE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4F9FE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC8DCF0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE5EFF9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4F9BCB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCFE1F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,44 +140,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,20 +500,20 @@
       <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="3">
-        <v>30</v>
-      </c>
-      <c r="H2" s="4">
-        <v>45</v>
-      </c>
-      <c r="I2" s="5">
-        <v>93</v>
-      </c>
-      <c r="J2" s="6">
-        <v>240</v>
-      </c>
-      <c r="K2" s="7">
-        <v>592</v>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -729,29 +526,29 @@
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="8">
-        <v>4</v>
+      <c r="D3" s="2">
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9">
-        <v>31</v>
-      </c>
-      <c r="G3" s="10">
-        <v>60</v>
-      </c>
-      <c r="H3" s="11">
-        <v>197</v>
-      </c>
-      <c r="I3" s="12">
-        <v>139</v>
-      </c>
-      <c r="J3" s="13">
-        <v>310</v>
-      </c>
-      <c r="K3" s="14">
-        <v>258</v>
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1227</v>
+      </c>
+      <c r="J3" s="3">
+        <v>8773</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -764,20 +561,20 @@
       <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="15">
-        <v>99</v>
-      </c>
-      <c r="E4" s="7">
-        <v>810</v>
-      </c>
-      <c r="F4" s="16">
-        <v>65</v>
-      </c>
-      <c r="G4" s="17">
-        <v>17</v>
-      </c>
-      <c r="H4" s="18">
-        <v>9</v>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -793,20 +590,20 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="19">
-        <v>121</v>
-      </c>
-      <c r="C5" s="7">
-        <v>867</v>
-      </c>
-      <c r="D5" s="18">
-        <v>10</v>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -831,26 +628,26 @@
       <c r="B6" s="2">
         <v>0</v>
       </c>
-      <c r="C6" s="8">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7">
-        <v>813</v>
-      </c>
-      <c r="E6" s="20">
-        <v>144</v>
-      </c>
-      <c r="F6" s="21">
-        <v>26</v>
-      </c>
-      <c r="G6" s="18">
-        <v>9</v>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>2</v>
-      </c>
-      <c r="I6" s="8">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
@@ -863,14 +660,14 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
-        <v>874</v>
-      </c>
-      <c r="C7" s="22">
-        <v>124</v>
+      <c r="B7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -899,31 +696,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3">
-        <v>43</v>
-      </c>
-      <c r="E8" s="23">
-        <v>19</v>
-      </c>
-      <c r="F8" s="24">
-        <v>262</v>
-      </c>
-      <c r="G8" s="7">
-        <v>585</v>
-      </c>
-      <c r="H8" s="25">
-        <v>78</v>
-      </c>
-      <c r="I8" s="18">
-        <v>6</v>
-      </c>
-      <c r="J8" s="26">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>96</v>
+      </c>
+      <c r="G8" s="3">
+        <v>9904</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -933,32 +730,32 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8">
-        <v>4</v>
+      <c r="B9" s="2">
+        <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
-      </c>
-      <c r="D9" s="27">
-        <v>29</v>
-      </c>
-      <c r="E9" s="23">
-        <v>20</v>
-      </c>
-      <c r="F9" s="7">
-        <v>611</v>
-      </c>
-      <c r="G9" s="28">
-        <v>242</v>
-      </c>
-      <c r="H9" s="25">
-        <v>79</v>
-      </c>
-      <c r="I9" s="29">
-        <v>10</v>
-      </c>
-      <c r="J9" s="26">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>9904</v>
+      </c>
+      <c r="G9" s="5">
+        <v>96</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -978,25 +775,25 @@
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
       </c>
-      <c r="G10" s="8">
-        <v>3</v>
-      </c>
-      <c r="H10" s="30">
-        <v>11</v>
-      </c>
-      <c r="I10" s="7">
-        <v>473</v>
-      </c>
-      <c r="J10" s="7">
-        <v>369</v>
-      </c>
-      <c r="K10" s="31">
-        <v>143</v>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>8773</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1227</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1012,26 +809,26 @@
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="8">
-        <v>4</v>
-      </c>
-      <c r="F11" s="8">
-        <v>4</v>
-      </c>
-      <c r="G11" s="32">
-        <v>54</v>
-      </c>
-      <c r="H11" s="7">
-        <v>579</v>
-      </c>
-      <c r="I11" s="33">
-        <v>277</v>
-      </c>
-      <c r="J11" s="34">
-        <v>75</v>
-      </c>
-      <c r="K11" s="18">
-        <v>7</v>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
